--- a/assets/cursos/EM/LOM3038.xlsx
+++ b/assets/cursos/EM/LOM3038.xlsx
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/1996</t>
+    <t>01/01/2021</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>-Apresentar a evolução das condições geológicas da Terra que culminaram com os recursos naturais existentes hoje, com ênfase nas reservas de combustíveis fósseis, hídricos e de minérios e a conseqüente reserva de energia advinda dessas fontes naturais. A América do Sul e do Brasil, mais especificamente, são destacados.- Acompanhar, através da literatura atual, a escassez dos recursos em vista do mau uso e das alternativas para o aproveitamento racional dos recursos existentes, com alternativas na área de geração de energia.</t>
+    <t>- Apresentar a evolução das condições geológicas da Terra que culminaram com os recursos naturais existentes hoje, com ênfase nas reservas de combustíveis fósseis, hídricos e de minérios e a conseqüente reserva de energia advinda dessas fontes naturais. A América do Sul e do Brasil, mais especificamente, são destacados.</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -82,7 +82,7 @@
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>- Universo e Terra,- Desenvolvimento da Terra.- Combustíveis fósseis.- Recursos renováveis e biomassa.- Recursos minerais.- Matérias-primas da grande indústria química:metais ferrosos e não-ferrosos.- Recursos hídricos.</t>
+    <t>- Desenvolvimento da Terra.- Recursos minerais.- Matérias-primas da grande indústria metalúrgica: metais ferrosos e não-ferrosos</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,7 +91,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>- Formação do Universo. - Formação do Sistema Solar.- Desenvolvimento da Terra.- Principais Eras Geológicas.- Petróleo.- Carvão e Gás Natural - Geração de  energia termelétrica.- Recursos Renováveis.- Biomassa ? Fontes alternativas de energia.- Matérias-primas para a grande indústria química.- Metais ferrosos.- Metais não-ferrosos.- Recursos hídricos ? Bacias hídricas.- Poluição das águas.- Escassez e reaproveitamento das águas.- Geração de energia elétrica.</t>
+    <t>- Desenvolvimento da Terra. - Principais Eras Geológicas. - Matérias-primas para a grande indústria metalúrgica: metais ferrosos e metais não-ferrosos.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -121,7 +121,7 @@
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>- Schäfer, A., Fundamentos de Ecologia e Biogeografia de Águas Continentais, Ed. Universidade, Porto Alegre.- Abreu, S.F. Recursos Minerais do Brasil, Ed. Edgard Bluecher, 1973.- Carioca, J. O. B. and Arora, H.L. Biomassa-Fundamentos e Aplicações Tecnológicas, Universidade Federal do Ceará, 1984.- Fernandes, F.R.C. Quem é quem no Subsolo Brasileiro, MCT/CNPq, 1987- Petri, S. e Fúlfaro, V. Geologia do Brasil, EDUSP, 1983.- Revistas especializadas e fontes de informação multimídia as mais diversas, dado ao caráter dinâmico das informações sobre reservas minerais, geração de energia e recursos naturais em geral.</t>
+    <t>- MILLER, Jr. G. T. “Ciência Ambiental”,  Editora: Thomson, 2006.- ABREU, S. F. “Recursos Minerais do Brasil”, Editora: Edgard Blücher, 1973.-  SKINNER, B. J. “Recursos Minerais da Terra”, Editora: Edgard Blücher, 1996.- WICANDER, R.; MONROE, J. S. “Fundamentos de Geologia”, Editora: Cengage Learning, 2009. - PRESS, F.; Siever, R.; Jordan, T.; Grotzinger, J. “Para Entender a Terra”, Editora: Bookman,  2006.- SCHÄFER, A. “Fundamentos de Ecologia e Biogeografia de Águas Continentais”, Editora: Universidade, Porto Alegre. - Revistas especializadas e sites, dado ao caráter dinâmico das informações sobre reservas minerais e recursos naturais em geral.</t>
   </si>
   <si>
     <t>Requisitos:</t>
